--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>title</t>
   </si>
@@ -103,153 +103,6 @@
     <t>JavaScript Elementary training</t>
   </si>
   <si>
-    <t>Web на практике. CSS, HTML, JavaScript, MySQL, PHP для f</t>
-  </si>
-  <si>
-    <t>STREAMLIT для DATA SCIENCE</t>
-  </si>
-  <si>
-    <t>HTML5+CSS3. Основы современного WEB-дизайна</t>
-  </si>
-  <si>
-    <t>Web на практике. CSS, HTML, JavaScript, MySQL, PHP для fulls</t>
-  </si>
-  <si>
-    <t>Web на практике. CSS, HTML, JavaScript, MySQL, PHP для full</t>
-  </si>
-  <si>
-    <t>Joomla! Программирование</t>
-  </si>
-  <si>
-    <t>Программирование на языке OCaml (мФПрогр) Мински (2017)</t>
-  </si>
-  <si>
-    <t>Web на практике. CSS, HTML, JavaScript, MySQL, PHP для fu</t>
-  </si>
-  <si>
-    <t>HTML и CSS для непрограммистов. Создай свое портфолио</t>
-  </si>
-  <si>
-    <t>Web на практике. CSS, HTML, JavaScript, MySQL</t>
-  </si>
-  <si>
-    <t>HTML CSS. Вся веб-разработка в схемах и иллюстрациях</t>
-  </si>
-  <si>
-    <t>HTML CSS вся веб-разработка в схемах и иллюстрациях</t>
-  </si>
-  <si>
-    <t>HTML, CSS, SCRATCH, PYTHON</t>
-  </si>
-  <si>
-    <t>HTML и CSS для непрограммистов. Создай свое портфолио, посад</t>
-  </si>
-  <si>
-    <t>Клиентские технологии веб-дизайна. HTML5 и CSS3. Учебное пос</t>
-  </si>
-  <si>
-    <t>HTML5+CSS3 основы современного Web-дизайна</t>
-  </si>
-  <si>
-    <t>HTML5 для Профессионалов Хуан Диего Гоше</t>
-  </si>
-  <si>
-    <t>HTML5 + CSS3. Основы современного WEB-ди</t>
-  </si>
-  <si>
-    <t>Frontend-разработка сайтов и приложений на HTML, CSS, Java</t>
-  </si>
-  <si>
-    <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программиро</t>
-  </si>
-  <si>
-    <t>HTMLCSS. Вся веб-разработка в схемах и иллюстрациях</t>
-  </si>
-  <si>
-    <t>Основы веб-программирования HTML 5, CSS 3, JavaScript у</t>
-  </si>
-  <si>
-    <t>Web на практике CSS HTML JavaScript MySQL PHP для</t>
-  </si>
-  <si>
-    <t>Разработка web-страниц на HTML, CSS и JavaScript. Учебное по</t>
-  </si>
-  <si>
-    <t>Frontend-разработка сайтов и приложений на HTML, CSS, Jav</t>
-  </si>
-  <si>
-    <t>HTML5 + CSS3. Основы современного WEB-дизайна</t>
-  </si>
-  <si>
-    <t>Вадим Подбельский Язык декларативного программирования XAML</t>
-  </si>
-  <si>
-    <t>Программирование на языке OCaml</t>
-  </si>
-  <si>
-    <t>HTML, СSS, Scratch, Python моя первая книга по программир</t>
-  </si>
-  <si>
-    <t>HTML, CSS, Scratch, Python. Моя первая книга</t>
-  </si>
-  <si>
-    <t>TINYML. Книга рецептов</t>
-  </si>
-  <si>
-    <t>TinyML. Книга рецептов</t>
-  </si>
-  <si>
-    <t>Frontend-разработка сайтов и приложений на HTML, CSS, JavaS</t>
-  </si>
-  <si>
-    <t>Создаем веб-сайты с PHP, MySQL, JavaScript, CSS и HTML5</t>
-  </si>
-  <si>
-    <t>HTML, JavaScript, PHP и MySQL. Джентльменский набор</t>
-  </si>
-  <si>
-    <t>HTML и CSS для непрограммистов создай свое портфолио, пос</t>
-  </si>
-  <si>
-    <t>Использование HTML 4</t>
-  </si>
-  <si>
-    <t>HTML и CSS для непрограммистов. Создай свое портфолио, поса</t>
-  </si>
-  <si>
-    <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программиров…</t>
-  </si>
-  <si>
-    <t>Декларативное программирование на языке XAML + С#. WPF прое</t>
-  </si>
-  <si>
-    <t>HTML CSS SCRATCH PYTHON Моя первая книга по</t>
-  </si>
-  <si>
-    <t>HTMLS + CSS3. Основы современного WEB-дизайна</t>
-  </si>
-  <si>
-    <t>Язык декларативного программирования XAML</t>
-  </si>
-  <si>
-    <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программ</t>
-  </si>
-  <si>
-    <t>Книга HTML CSS. Вся веб-разработка в схемах и иллюстрациях</t>
-  </si>
-  <si>
-    <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программиров</t>
-  </si>
-  <si>
-    <t>Справочник HTML. Кратко, быстро, под рукой, 2-е изд</t>
-  </si>
-  <si>
-    <t>Web на практике. CSS, HTML, JavaS… книга Александр Кириченко</t>
-  </si>
-  <si>
-    <t>HTML, CSS, SCRATCH, PYTHON. Моя первая к</t>
-  </si>
-  <si>
     <t>Язык аналитических вычислений REDUCE</t>
   </si>
   <si>
@@ -277,6 +130,48 @@
     <t>Подробное руководство по DAX. Бизнес-аналитика</t>
   </si>
   <si>
+    <t>Умная робототехника для начинающих разработка на Arduino</t>
+  </si>
+  <si>
+    <t>Робототехника в примерах и задачах. Курс программирования</t>
+  </si>
+  <si>
+    <t>Соревновательная робототехника Программирование робота Lego</t>
+  </si>
+  <si>
+    <t>Робототехника в школе и дома. Книга проектов</t>
+  </si>
+  <si>
+    <t>Умная робототехника для начинающих. Разработка на Arduino</t>
+  </si>
+  <si>
+    <t>Изучение робототехники с помощью Python</t>
+  </si>
+  <si>
+    <t>Умная робототехника для начинающих Разр</t>
+  </si>
+  <si>
+    <t>Практическая робототехника. C++ и Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Практическая робототехника. C++ и Raspb… книга Бромбах Ллойд</t>
+  </si>
+  <si>
+    <t>Книга Григорьев А Т "Робототехника в школе и дома Книга п</t>
+  </si>
+  <si>
+    <t>Игровая робототехника для юных программистов и конструкторо</t>
+  </si>
+  <si>
+    <t>Игровая робототехника для юных программистов и конструкторов</t>
+  </si>
+  <si>
+    <t>Робототехника на Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Игровая робототехника для юных программистов</t>
+  </si>
+  <si>
     <t>https://www.wildberries.ru/catalog/462354133/detail.aspx</t>
   </si>
   <si>
@@ -355,153 +250,6 @@
     <t>https://www.wildberries.ru/catalog/48274959/detail.aspx</t>
   </si>
   <si>
-    <t>https://www.wildberries.ru/catalog/173211675/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/311286708/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/476280211/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/212240043/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/335281205/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/599088070/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/476332399/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/291259599/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/378998884/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/45350254/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/342688467/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/557477883/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/271717389/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/476171483/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/480678908/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/563337438/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/565956075/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/64168086/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/500242499/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/391402338/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/303522444/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/567362652/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/440780219/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/526615456/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/520692427/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/559622316/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/250611707/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/223859577/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/563341967/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/449208793/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/311286848/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/318456151/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/568495345/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/439448865/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/250870930/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/557498971/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/577199521/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/545861125/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/45372759/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/568507910/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/440496743/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/206048692/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/148344908/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/142653225/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/361924789/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/75593309/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/271719611/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/380644595/detail.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wildberries.ru/catalog/64168115/detail.aspx</t>
-  </si>
-  <si>
     <t>https://www.wildberries.ru/catalog/580200156/detail.aspx</t>
   </si>
   <si>
@@ -527,6 +275,48 @@
   </si>
   <si>
     <t>https://www.wildberries.ru/catalog/261907541/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/557461016/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/265031856/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/36804321/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/45833783/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/322137729/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/329542865/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/322739488/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/159669243/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/274999979/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/139328375/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/391156542/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/144988636/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/138225677/detail.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/6928165/detail.aspx</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1565,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1813,7 +1603,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1851,7 +1641,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1889,7 +1679,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1927,7 +1717,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1965,7 +1755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2003,7 +1793,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2041,7 +1831,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2079,7 +1869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2117,7 +1907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2155,7 +1945,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2193,7 +1983,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2231,7 +2021,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2269,7 +2059,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2307,7 +2097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2345,7 +2135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2383,7 +2173,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2421,7 +2211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2459,7 +2249,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2467,1336 +2257,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7010400" y="76085700"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="77666850"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="79248000"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="80829150"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="82410300"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="83991450"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="85572600"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="87153750"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="88734900"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="90316050"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="91897200"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="93478350"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="95059500"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="96640650"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="98221800"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="99802950"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="101384100"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="102965250"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="104546400"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="106127550"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="107708700"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="109289850"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="110871000"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="112452150"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="114033300"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="115614450"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="117195600"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="118776750"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="120357900"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="121939050"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="123520200"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="125101350"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="126682500"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="128263650"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="129844800"/>
-          <a:ext cx="1143000" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="131425950"/>
           <a:ext cx="1143000" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4094,7 +2554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4122,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>425</v>
@@ -4133,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>588</v>
@@ -4144,7 +2604,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>1196</v>
@@ -4155,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>2827</v>
@@ -4166,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>1274</v>
@@ -4177,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>743</v>
@@ -4188,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>733</v>
@@ -4199,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1126</v>
@@ -4210,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>601</v>
@@ -4221,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>1029</v>
@@ -4232,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>2187</v>
@@ -4243,7 +2703,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>1104</v>
@@ -4254,7 +2714,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>595</v>
@@ -4265,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>597</v>
@@ -4276,7 +2736,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>2488</v>
@@ -4287,7 +2747,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>546</v>
@@ -4298,7 +2758,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <v>1583</v>
@@ -4309,7 +2769,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>1958</v>
@@ -4320,7 +2780,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>2101</v>
@@ -4331,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C21">
         <v>1765</v>
@@ -4342,7 +2802,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>6037</v>
@@ -4353,7 +2813,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>1078</v>
@@ -4364,7 +2824,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>1811</v>
@@ -4375,7 +2835,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>8250</v>
@@ -4386,7 +2846,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>1947</v>
@@ -4397,7 +2857,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>988</v>
@@ -4408,10 +2868,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C28">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="125" customHeight="1">
@@ -4419,10 +2879,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C29">
-        <v>2012</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="125" customHeight="1">
@@ -4430,10 +2890,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C30">
-        <v>2102</v>
+        <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="125" customHeight="1">
@@ -4441,10 +2901,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C31">
-        <v>3188</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="125" customHeight="1">
@@ -4452,10 +2912,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C32">
-        <v>2431</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="125" customHeight="1">
@@ -4463,10 +2923,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C33">
-        <v>1151</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="125" customHeight="1">
@@ -4474,10 +2934,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C34">
-        <v>5147</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="125" customHeight="1">
@@ -4485,10 +2945,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C35">
-        <v>846</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="125" customHeight="1">
@@ -4496,10 +2956,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C36">
-        <v>4389</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="125" customHeight="1">
@@ -4507,10 +2967,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C37">
-        <v>910</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="125" customHeight="1">
@@ -4518,10 +2978,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C38">
-        <v>4885</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="125" customHeight="1">
@@ -4529,10 +2989,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C39">
-        <v>7092</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="125" customHeight="1">
@@ -4540,10 +3000,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C40">
-        <v>666</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="125" customHeight="1">
@@ -4551,10 +3011,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C41">
-        <v>4165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="125" customHeight="1">
@@ -4562,10 +3022,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C42">
-        <v>1333</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="125" customHeight="1">
@@ -4573,10 +3033,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C43">
-        <v>1989</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="125" customHeight="1">
@@ -4584,10 +3044,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C44">
-        <v>1250</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="125" customHeight="1">
@@ -4595,10 +3055,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C45">
-        <v>443</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="125" customHeight="1">
@@ -4606,10 +3066,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C46">
-        <v>898</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="125" customHeight="1">
@@ -4617,10 +3077,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C47">
-        <v>1823</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="125" customHeight="1">
@@ -4628,10 +3088,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C48">
-        <v>5537</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="125" customHeight="1">
@@ -4639,10 +3099,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C49">
-        <v>3404</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="125" customHeight="1">
@@ -4650,395 +3110,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C50">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="125" customHeight="1">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="125" customHeight="1">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="125" customHeight="1">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="125" customHeight="1">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54">
-        <v>3814</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="125" customHeight="1">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="125" customHeight="1">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="125" customHeight="1">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="125" customHeight="1">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="125" customHeight="1">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="125" customHeight="1">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="125" customHeight="1">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="125" customHeight="1">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="125" customHeight="1">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63">
-        <v>8243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="125" customHeight="1">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="125" customHeight="1">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="125" customHeight="1">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="125" customHeight="1">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67">
-        <v>3766</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="125" customHeight="1">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="125" customHeight="1">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="125" customHeight="1">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="125" customHeight="1">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="125" customHeight="1">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="125" customHeight="1">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="125" customHeight="1">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="125" customHeight="1">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="125" customHeight="1">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="125" customHeight="1">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="125" customHeight="1">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="125" customHeight="1">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="125" customHeight="1">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="125" customHeight="1">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81">
-        <v>10383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="125" customHeight="1">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="125" customHeight="1">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="125" customHeight="1">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="125" customHeight="1">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85">
-        <v>2584</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -5092,43 +3167,8 @@
     <hyperlink ref="B48" r:id="rId47"/>
     <hyperlink ref="B49" r:id="rId48"/>
     <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId85"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>